--- a/Utilities/Project Rubric.xlsx
+++ b/Utilities/Project Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qsync\Graphics I &amp; II Shared Staff Folder\Project &amp; Portfolio IV\Week_3_Handout\Assignments\The Level Renderer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drave\Desktop\3dGraphics_Project\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2B1F7-3385-405B-9FB5-6081E9791C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48999EB3-EBA6-45A7-B81B-CF588E3040C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="195" windowWidth="25335" windowHeight="16785" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">All levels must contain no less than </t>
         </r>
@@ -139,7 +139,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> unique models and at least </t>
         </r>
@@ -158,7 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> duplicates of some of those models.</t>
         </r>
@@ -171,7 +171,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Exported Level Data must contain clear changes to translation, rotation and scaling of multiple models.</t>
         </r>
@@ -184,7 +184,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Text Parsing must be generic and not hardcoded to a specific GameLevel's order. 
 </t>
@@ -204,7 +204,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Loop using getline('\n') to read the file till you hit the end. Whenever you find the word "MESH", the next line is the name of the model. Then use functions like atof() or sscanf() to grab the matrix data.</t>
         </r>
@@ -253,7 +253,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>No geometric glitches may be present. Must appear the same as the original. (disabling API back-face culling is allowed)</t>
         </r>
@@ -279,7 +279,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>No geometric glitches may be present. Must appear the same as the original. (disabling API back-face culling is allowed)</t>
         </r>
@@ -292,7 +292,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>There must be a variety of color and specular attributes. Textures are not required for core feature set.</t>
         </r>
@@ -305,7 +305,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Same lighting enviroment as assignment 2 at a minimum. Model materials must be utilized. Point and Spot lights also qualify but must have clear specular and ambient properties.</t>
         </r>
@@ -318,7 +318,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Unlike Core Features, you can achieve </t>
         </r>
@@ -337,7 +337,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> of these in </t>
         </r>
@@ -1263,7 +1263,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>(optional) have the python exporter script read a Blender custom attribute to get the song/FX name.</t>
         </r>
@@ -1276,7 +1276,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Provide a screenshot of your commit logs during turn-in. Additionally please add GX2Overlord as a contributor if using GitHub.</t>
         </r>
@@ -1289,7 +1289,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Attatch a video clip of each in the feedback section of the Level Renderer. Include the source code/exes with this submission.</t>
         </r>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -1447,13 +1447,16 @@
   </si>
   <si>
     <t>KEY FEATURES - 33% [unlocked by core, pick three]</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1504,12 +1507,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1740,7 +1737,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
@@ -1766,10 +1763,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2095,19 +2095,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2128,8 +2129,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -2139,8 +2143,11 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -2150,8 +2157,11 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -2161,8 +2171,11 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2172,8 +2185,11 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2199,11 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2195,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2206,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2216,8 +2235,11 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -2227,8 +2249,11 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2241,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,7 +2277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -2263,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -2274,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>

--- a/Utilities/Project Rubric.xlsx
+++ b/Utilities/Project Rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drave\Desktop\3dGraphics_Project\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48999EB3-EBA6-45A7-B81B-CF588E3040C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCBBC0-D052-453F-A0FE-9E916164DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,6 +2213,9 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
+      <c r="D8" s="23" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2235,9 +2238,6 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2248,9 +2248,6 @@
       </c>
       <c r="C11" s="3">
         <v>0</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/Utilities/Project Rubric.xlsx
+++ b/Utilities/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drave\Desktop\3dGraphics_Project\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCBBC0-D052-453F-A0FE-9E916164DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92CDA5-F54D-43E7-970F-A436A93D608F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -1450,6 +1450,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1743,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
@@ -1768,6 +1774,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2095,20 +2104,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="4" max="5" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2119,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2129,11 +2138,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -2143,11 +2152,11 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -2157,11 +2166,11 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -2171,11 +2180,11 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2185,11 +2194,11 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2199,11 +2208,11 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2213,11 +2222,11 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2227,8 +2236,11 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2238,8 +2250,11 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2264,11 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -2284,8 +2302,11 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -2295,8 +2316,11 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
@@ -2307,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
@@ -2318,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
@@ -2328,8 +2352,11 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -2339,8 +2366,11 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2361,8 +2391,11 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -2373,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -2384,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>42</v>
       </c>
@@ -2395,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -2406,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2429,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2439,8 +2472,11 @@
       <c r="C28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
@@ -2451,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>20</v>
       </c>
@@ -2461,8 +2497,11 @@
       <c r="C30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2483,8 +2522,11 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2494,8 +2536,11 @@
       <c r="C33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>15</v>
       </c>
@@ -2506,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>28</v>
       </c>
@@ -2517,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>16</v>
       </c>
@@ -2528,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>34</v>
       </c>
@@ -2539,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>17</v>
       </c>
@@ -2550,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>18</v>
       </c>
@@ -2561,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>27</v>
       </c>
@@ -2572,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>29</v>
       </c>
@@ -2583,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>35</v>
       </c>
@@ -2594,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2617,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2628,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>41</v>
       </c>
@@ -2638,8 +2683,11 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>25</v>
       </c>
@@ -2649,8 +2697,11 @@
       <c r="C47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>40</v>
       </c>

--- a/Utilities/Project Rubric.xlsx
+++ b/Utilities/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drave\Desktop\3dGraphics_Project\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92CDA5-F54D-43E7-970F-A436A93D608F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE023FE-13D8-4C2D-B9DD-6EDCA104197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -1456,6 +1456,21 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Adv.</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -2104,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,6 +2130,7 @@
     <col min="1" max="1" width="74.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="23"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2331,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
@@ -2342,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
@@ -2352,11 +2368,17 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="D18" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="23">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -2366,11 +2388,17 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="23">
+        <v>22</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -2380,8 +2408,14 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2391,11 +2425,14 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -2405,8 +2442,18 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="23">
+        <f>SUM(G18:G21)</f>
+        <v>76</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -2417,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>42</v>
       </c>
@@ -2427,8 +2474,11 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -2439,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2451,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2462,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2476,7 +2526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
@@ -2487,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>20</v>
       </c>
@@ -2501,7 +2551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>13</v>
       </c>
@@ -2512,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2550,6 +2600,9 @@
       <c r="C34" s="3">
         <v>0</v>
       </c>
+      <c r="E34" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
@@ -2683,6 +2736,9 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
+      <c r="D46" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="E46" s="23" t="s">
         <v>50</v>
       </c>
@@ -2697,7 +2753,7 @@
       <c r="C47" s="3">
         <v>0</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="24" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Utilities/Project Rubric.xlsx
+++ b/Utilities/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drave\Desktop\3dGraphics_Project\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE023FE-13D8-4C2D-B9DD-6EDCA104197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A6AB3-8C1E-48D7-B488-80ECAEB67FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -1453,9 +1453,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>Core</t>
@@ -2121,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2130,7 @@
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -2172,7 +2169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -2186,7 +2183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -2200,7 +2197,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2242,7 +2239,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2256,7 +2253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2270,7 +2267,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -2284,7 +2281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2308,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -2318,11 +2315,8 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -2332,11 +2326,8 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
@@ -2375,7 +2366,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2392,10 +2383,10 @@
         <v>49</v>
       </c>
       <c r="G19" s="23">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2412,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2429,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2442,15 +2433,15 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>50</v>
+      <c r="D22" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="G22" s="23">
         <f>SUM(G18:G21)</f>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2474,9 +2465,6 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -2738,9 +2726,6 @@
       </c>
       <c r="D46" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">

--- a/Utilities/Project Rubric.xlsx
+++ b/Utilities/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drave\Desktop\3dGraphics_Project\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A6AB3-8C1E-48D7-B488-80ECAEB67FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB7A4F-52A0-4770-8F09-374A129F5BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -1452,22 +1452,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Adv.</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>I wanted to soo bad!</t>
   </si>
 </sst>
 </file>
@@ -2116,21 +2101,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="23"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="29.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2149,13 +2136,13 @@
         <v>0.02</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -2163,13 +2150,13 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -2177,13 +2164,13 @@
         <v>0.05</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -2191,13 +2178,13 @@
         <v>0.01</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2205,13 +2192,13 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2219,13 +2206,13 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2233,13 +2220,13 @@
         <v>0.03</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2247,13 +2234,13 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2261,13 +2248,13 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -2275,13 +2262,13 @@
         <v>0.05</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2291,10 +2278,10 @@
       </c>
       <c r="C12" s="6">
         <f>SUM(C2:C11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2305,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -2315,8 +2302,11 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -2327,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
@@ -2338,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
@@ -2349,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
@@ -2357,19 +2347,13 @@
         <v>0.11</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="23">
-        <v>50</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -2377,19 +2361,13 @@
         <v>0.11</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="23">
-        <v>33</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -2399,14 +2377,8 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2416,14 +2388,8 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="23">
-        <v>4</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -2431,20 +2397,13 @@
         <v>0.11</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="23">
-        <f>SUM(G18:G21)</f>
-        <v>87</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -2455,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>42</v>
       </c>
@@ -2466,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -2477,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2486,10 +2445,10 @@
       </c>
       <c r="C26" s="6">
         <f>MIN(SUM(C14:C25),33%)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2500,7 +2459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2508,13 +2467,14 @@
         <v>0.17</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
@@ -2524,8 +2484,9 @@
       <c r="C29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>20</v>
       </c>
@@ -2535,11 +2496,9 @@
       <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>13</v>
       </c>
@@ -2549,8 +2508,9 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2560,9 +2520,7 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="E32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2574,9 +2532,7 @@
       <c r="C33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="E33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
@@ -2588,9 +2544,7 @@
       <c r="C34" s="3">
         <v>0</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
@@ -2700,7 +2654,7 @@
       </c>
       <c r="C44" s="6">
         <f>MIN(SUM(C28:C43),17%)</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2722,7 +2676,7 @@
         <v>0.02</v>
       </c>
       <c r="C46" s="3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>49</v>
@@ -2736,7 +2690,7 @@
         <v>0.02</v>
       </c>
       <c r="C47" s="3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>49</v>
@@ -2763,7 +2717,7 @@
       </c>
       <c r="C49" s="13">
         <f>SUM(C46:C48)</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2776,7 +2730,7 @@
       </c>
       <c r="C50" s="16">
         <f>MIN(SUM(C49,C44,C26,C12),100%)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
